--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="11460" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,15 @@
     <sheet name="PIM" sheetId="3" r:id="rId3"/>
     <sheet name="EmployeeDetails" sheetId="12" r:id="rId4"/>
     <sheet name="Admin" sheetId="4" r:id="rId5"/>
-    <sheet name="Apply" sheetId="13" r:id="rId6"/>
-    <sheet name="Assign Leave" sheetId="14" r:id="rId7"/>
-    <sheet name="My Leave" sheetId="15" r:id="rId8"/>
-    <sheet name="Entitlements" sheetId="16" r:id="rId9"/>
-    <sheet name="Reports" sheetId="17" r:id="rId10"/>
+    <sheet name="LeaveApply" sheetId="13" r:id="rId6"/>
+    <sheet name="LeaveAssign" sheetId="14" r:id="rId7"/>
+    <sheet name="MyLeave" sheetId="15" r:id="rId8"/>
+    <sheet name="LeaveTypes" sheetId="18" r:id="rId9"/>
+    <sheet name="EntitlementsAdd" sheetId="16" r:id="rId10"/>
+    <sheet name="EntitlementsSearch" sheetId="19" r:id="rId11"/>
+    <sheet name="MyEntitlements" sheetId="20" r:id="rId12"/>
+    <sheet name="LeaveReport" sheetId="17" r:id="rId13"/>
+    <sheet name="MyLeaveReport" sheetId="21" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
   <si>
     <t>username</t>
   </si>
@@ -203,10 +207,10 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>Min Salary</t>
-  </si>
-  <si>
-    <t>Max Salary</t>
+    <t>Minimum Salary</t>
+  </si>
+  <si>
+    <t>Maximum Salary</t>
   </si>
   <si>
     <t>Organization Unit</t>
@@ -230,13 +234,13 @@
     <t>Develops and maintains automated test scripts to ensure software quality...</t>
   </si>
   <si>
-    <t>CMT - LEVEL -2</t>
+    <t>Grade 9</t>
   </si>
   <si>
     <t>CMT-Full-Time Permanent</t>
   </si>
   <si>
-    <t>United States Dollar</t>
+    <t>INR - Indian Rupees</t>
   </si>
   <si>
     <t>CMT-QA Department</t>
@@ -245,13 +249,97 @@
     <t>CMT-ENGINEERING</t>
   </si>
   <si>
-    <t>EmpName</t>
+    <t>employeeName</t>
+  </si>
+  <si>
+    <t>leaveType</t>
+  </si>
+  <si>
+    <t>fromDate</t>
+  </si>
+  <si>
+    <t>toDate</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>CAN - Bereavement</t>
+  </si>
+  <si>
+    <t>2025-10-08</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>1 day bereavement</t>
+  </si>
+  <si>
+    <t>Applied or shows balance banner</t>
+  </si>
+  <si>
+    <t>CAN - Personal</t>
+  </si>
+  <si>
+    <t>Assigning 2 days</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>2025-10-01</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
   <si>
     <t>LeaveType</t>
   </si>
   <si>
-    <t>Action</t>
+    <t>CAN - FMLA</t>
+  </si>
+  <si>
+    <t>CAN - Maternity</t>
+  </si>
+  <si>
+    <t>CAN - Paternity</t>
+  </si>
+  <si>
+    <t>entitlement</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>subUnit</t>
+  </si>
+  <si>
+    <t>Texas R&amp;D</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>ReportName</t>
   </si>
   <si>
     <t>FromDate</t>
@@ -260,40 +348,13 @@
     <t>ToDate</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>CAN - Bereavement</t>
-  </si>
-  <si>
-    <t>Apply</t>
-  </si>
-  <si>
-    <t>2025-10-08</t>
-  </si>
-  <si>
-    <t>Bereavement leave - 1 day</t>
-  </si>
-  <si>
-    <t>Info / No balance</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Musthafa Sheik Sheik </t>
-  </si>
-  <si>
-    <t>ExpectedBalance</t>
-  </si>
-  <si>
-    <t>ReportName</t>
-  </si>
-  <si>
     <t>Monthly Leave</t>
+  </si>
+  <si>
+    <t>2024-01-01 - 2024-12-31</t>
+  </si>
+  <si>
+    <t>2025-01-01 - 2025-12-31</t>
   </si>
 </sst>
 </file>
@@ -944,6 +1005,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -952,9 +1016,6 @@
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1025,6 +1086,10 @@
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" r:id="rId1" ax:persistence="persistStreamInit"/>
 </file>
 
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1055,8 +1120,54 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4046220" y="0"/>
-              <a:ext cx="1083945" cy="0"/>
+              <a:off x="4352925" y="0"/>
+              <a:ext cx="1066800" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Host Control  1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17878425" y="0"/>
+              <a:ext cx="542925" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1359,68 +1470,68 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A27" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="40.8611111111111" customWidth="1"/>
-    <col min="2" max="2" width="11.1388888888889" customWidth="1"/>
+    <col min="1" max="1" width="40.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1"/>
@@ -1452,39 +1563,201 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1142857142857" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.1142857142857" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="23.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1499,44 +1772,44 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B25" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.4259259259259" customWidth="1"/>
-    <col min="2" max="2" width="39.8611111111111" customWidth="1"/>
+    <col min="1" max="1" width="17.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="39.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="30" spans="1:2">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:2">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="30" spans="1:2">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1552,37 +1825,37 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F15" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.86111111111111" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28703703703704" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.13888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1388888888889" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5740740740741" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85714285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.14285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5714285714286" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1647,90 +1920,90 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F20" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="8.42592592592593" customWidth="1"/>
-    <col min="3" max="3" width="11.1388888888889"/>
-    <col min="7" max="7" width="11.1388888888889"/>
-    <col min="11" max="12" width="9.13888888888889" customWidth="1"/>
+    <col min="1" max="1" width="8.42857142857143" customWidth="1"/>
+    <col min="3" max="3" width="11.1428571428571"/>
+    <col min="7" max="7" width="11.1428571428571"/>
+    <col min="11" max="12" width="9.14285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:12">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="30" spans="1:12">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" ht="43.2" spans="1:12">
+    <row r="2" ht="60" spans="1:12">
       <c r="A2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>27616</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>33555</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1745,172 +2018,194 @@
   <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E24" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="21.712962962963" customWidth="1"/>
-    <col min="2" max="2" width="13.8611111111111" customWidth="1"/>
+    <col min="1" max="1" width="21.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="13.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="22.712962962963" customWidth="1"/>
-    <col min="5" max="5" width="128.425925925926" customWidth="1"/>
-    <col min="6" max="6" width="13.4259259259259" customWidth="1"/>
-    <col min="7" max="7" width="22.8611111111111" customWidth="1"/>
-    <col min="8" max="8" width="11.5740740740741" customWidth="1"/>
-    <col min="9" max="9" width="8.13888888888889" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="18.287037037037" customWidth="1"/>
-    <col min="12" max="12" width="16.1388888888889" customWidth="1"/>
+    <col min="4" max="4" width="22.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="128.428571428571" customWidth="1"/>
+    <col min="6" max="6" width="13.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="22.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="11.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="16.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="16.8571428571429" customWidth="1"/>
+    <col min="11" max="11" width="18.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="16.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:12">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:12">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="30" spans="1:12">
+      <c r="A2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>1000</v>
       </c>
-      <c r="J2" s="4">
-        <v>5000</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2">
+        <v>15000</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId3">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E28" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.8888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.11111111111111" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.1111111111111" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.8888888888889" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.8571428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1925,33 +2220,33 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G30" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.8888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.1111111111111" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.8888888888889" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -1959,16 +2254,16 @@
         <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1980,53 +2275,50 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="K29" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.1111111111111" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.8888888888889" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="11.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42857142857143" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="C1" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2038,40 +2330,46 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="H30" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="19.8888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="20.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -4,23 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460" activeTab="10"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
     <sheet name="PIM" sheetId="3" r:id="rId3"/>
-    <sheet name="EmployeeDetails" sheetId="12" r:id="rId4"/>
-    <sheet name="Admin" sheetId="4" r:id="rId5"/>
-    <sheet name="LeaveApply" sheetId="13" r:id="rId6"/>
-    <sheet name="LeaveAssign" sheetId="14" r:id="rId7"/>
-    <sheet name="MyLeave" sheetId="15" r:id="rId8"/>
-    <sheet name="LeaveTypes" sheetId="18" r:id="rId9"/>
-    <sheet name="EntitlementsAdd" sheetId="16" r:id="rId10"/>
-    <sheet name="EntitlementsSearch" sheetId="19" r:id="rId11"/>
-    <sheet name="MyEntitlements" sheetId="20" r:id="rId12"/>
-    <sheet name="LeaveReport" sheetId="17" r:id="rId13"/>
-    <sheet name="MyLeaveReport" sheetId="21" r:id="rId14"/>
+    <sheet name="Admin" sheetId="4" r:id="rId4"/>
+    <sheet name="EmployeeDetails" sheetId="12" r:id="rId5"/>
+    <sheet name="Leave" sheetId="13" r:id="rId6"/>
+    <sheet name="LeaveApply" sheetId="14" r:id="rId7"/>
+    <sheet name="LeaveAssign" sheetId="15" r:id="rId8"/>
+    <sheet name="MyLeave" sheetId="18" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
   <si>
     <t>username</t>
   </si>
@@ -72,28 +67,16 @@
     <t>logout</t>
   </si>
   <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>menus</t>
-  </si>
-  <si>
-    <t>Admin | PIM | Leave | Time</t>
-  </si>
-  <si>
-    <t>quickLaunchTiles</t>
-  </si>
-  <si>
-    <t>Assign Leave | Leave List | Timesheets | Apply Leave</t>
-  </si>
-  <si>
-    <t>baselineWidgets</t>
-  </si>
-  <si>
-    <t>Quick Launch | Time at Work | My Actions | Employee Distribution by Sub Unit</t>
+    <t>Key,Value</t>
+  </si>
+  <si>
+    <t>menus,Admin | PIM | Leave | Time</t>
+  </si>
+  <si>
+    <t>quickLaunchTiles,Assign Leave | Leave List | Timesheets | Apply Leave</t>
+  </si>
+  <si>
+    <t>baselineWidgets,Quick Launch | Time at Work | My Actions | Employee Distribution by Sub Unit</t>
   </si>
   <si>
     <t>FirstName</t>
@@ -129,6 +112,129 @@
     <t>112757779</t>
   </si>
   <si>
+    <t>Adeena</t>
+  </si>
+  <si>
+    <t>Mohammad</t>
+  </si>
+  <si>
+    <t>adeen</t>
+  </si>
+  <si>
+    <t>adeen1@</t>
+  </si>
+  <si>
+    <t>Sohail</t>
+  </si>
+  <si>
+    <t>sohailu</t>
+  </si>
+  <si>
+    <t>sohailu1@</t>
+  </si>
+  <si>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>JobDescription</t>
+  </si>
+  <si>
+    <t>PayGrade</t>
+  </si>
+  <si>
+    <t>Employment Status</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Minimum Salary</t>
+  </si>
+  <si>
+    <t>Maximum Salary</t>
+  </si>
+  <si>
+    <t>Organization Unit</t>
+  </si>
+  <si>
+    <t>Parent Unit</t>
+  </si>
+  <si>
+    <t>Musthafa Sheik Sheik</t>
+  </si>
+  <si>
+    <t>muysheiu</t>
+  </si>
+  <si>
+    <t>muysheiu1@</t>
+  </si>
+  <si>
+    <t>CMT-Quality Engineer</t>
+  </si>
+  <si>
+    <t>Develops and maintains automated test scripts to ensure software quality...</t>
+  </si>
+  <si>
+    <t>Grade 9 - CMT</t>
+  </si>
+  <si>
+    <t>CMT-Full-Time Permanent</t>
+  </si>
+  <si>
+    <t>INR - Indian Rupees</t>
+  </si>
+  <si>
+    <t>CMT-QA Department</t>
+  </si>
+  <si>
+    <t>CMT-ENGINEERING</t>
+  </si>
+  <si>
+    <t>Mohammadu</t>
+  </si>
+  <si>
+    <t>CMT-Quality Engineer-I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develops and maintains </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade 9.5 -CMT </t>
+  </si>
+  <si>
+    <t>CMT-I-Full-Time Permanent</t>
+  </si>
+  <si>
+    <t>CMT-QA Department-I</t>
+  </si>
+  <si>
+    <t>CMT-ENGINEERING-I</t>
+  </si>
+  <si>
+    <t>KSohail</t>
+  </si>
+  <si>
+    <t>CMT-Quality Engineer-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develops and maintains automated test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade 10 -CMT </t>
+  </si>
+  <si>
+    <t>CMT II-Full-Time Permanent</t>
+  </si>
+  <si>
+    <t>CMT-QA Department-II</t>
+  </si>
+  <si>
+    <t>CMT-ENGINEERING-II</t>
+  </si>
+  <si>
     <t>FullName</t>
   </si>
   <si>
@@ -147,9 +253,6 @@
     <t>JoinedDate</t>
   </si>
   <si>
-    <t>JobTitle</t>
-  </si>
-  <si>
     <t>JobCategory</t>
   </si>
   <si>
@@ -192,169 +295,40 @@
     <t>Full-Time Probation</t>
   </si>
   <si>
-    <t>EmployeeName</t>
-  </si>
-  <si>
-    <t>JobDescription</t>
-  </si>
-  <si>
-    <t>PayGrade</t>
-  </si>
-  <si>
-    <t>Employment Status</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Minimum Salary</t>
-  </si>
-  <si>
-    <t>Maximum Salary</t>
-  </si>
-  <si>
-    <t>Organization Unit</t>
-  </si>
-  <si>
-    <t>Parent Unit</t>
-  </si>
-  <si>
-    <t>Musthafa Sheik Sheik</t>
-  </si>
-  <si>
-    <t>muysheiu</t>
-  </si>
-  <si>
-    <t>muysheiu1@</t>
-  </si>
-  <si>
-    <t>CMT-Quality Engineer</t>
-  </si>
-  <si>
-    <t>Develops and maintains automated test scripts to ensure software quality...</t>
-  </si>
-  <si>
-    <t>Grade 9</t>
-  </si>
-  <si>
-    <t>CMT-Full-Time Permanent</t>
-  </si>
-  <si>
-    <t>INR - Indian Rupees</t>
-  </si>
-  <si>
-    <t>CMT-QA Department</t>
-  </si>
-  <si>
-    <t>CMT-ENGINEERING</t>
-  </si>
-  <si>
-    <t>employeeName</t>
-  </si>
-  <si>
-    <t>leaveType</t>
-  </si>
-  <si>
-    <t>fromDate</t>
-  </si>
-  <si>
-    <t>toDate</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>LeaveType</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>CAN - Personal</t>
+  </si>
+  <si>
+    <t>2025-10-08</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
   <si>
     <t>CAN - Bereavement</t>
   </si>
   <si>
-    <t>2025-10-08</t>
-  </si>
-  <si>
-    <t>2025-10-09</t>
-  </si>
-  <si>
-    <t>1 day bereavement</t>
-  </si>
-  <si>
-    <t>Applied or shows balance banner</t>
-  </si>
-  <si>
-    <t>CAN - Personal</t>
-  </si>
-  <si>
-    <t>Assigning 2 days</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>2025-10-01</t>
-  </si>
-  <si>
-    <t>2025-10-31</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2025-12-01</t>
-  </si>
-  <si>
-    <t>2025-12-31</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>LeaveType</t>
-  </si>
-  <si>
-    <t>CAN - FMLA</t>
-  </si>
-  <si>
-    <t>CAN - Maternity</t>
-  </si>
-  <si>
-    <t>CAN - Paternity</t>
-  </si>
-  <si>
-    <t>entitlement</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>subUnit</t>
-  </si>
-  <si>
-    <t>Texas R&amp;D</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>ReportName</t>
-  </si>
-  <si>
-    <t>FromDate</t>
-  </si>
-  <si>
-    <t>ToDate</t>
-  </si>
-  <si>
-    <t>Monthly Leave</t>
-  </si>
-  <si>
-    <t>2024-01-01 - 2024-12-31</t>
-  </si>
-  <si>
-    <t>2025-01-01 - 2025-12-31</t>
+    <t>Apply via DP</t>
+  </si>
+  <si>
+    <t>Assign via DP</t>
+  </si>
+  <si>
+    <t>EmpName</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -999,23 +973,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1120,7 +1091,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4352925" y="0"/>
+              <a:off x="4562475" y="0"/>
               <a:ext cx="1066800" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1470,7 +1441,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A25" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1481,69 +1452,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1"/>
@@ -1553,212 +1524,6 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="21.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="1">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="14.1142857142857" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.1142857142857" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="23.4285714285714" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1769,48 +1534,35 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="17.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="39.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="2" ht="30" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+    <row r="3" ht="75" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="4" ht="105" spans="1:1">
+      <c r="A4" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="30" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="30" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1822,17 +1574,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C21" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.85714285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.7142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.14285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.2857142857143" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.8571428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.1428571428571" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5714285714286" style="1" customWidth="1"/>
@@ -1840,43 +1592,83 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="F3" s="1">
+        <v>112757778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1">
+        <v>112757710</v>
       </c>
     </row>
   </sheetData>
@@ -1917,112 +1709,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="8.42857142857143" customWidth="1"/>
-    <col min="3" max="3" width="11.1428571428571"/>
-    <col min="7" max="7" width="11.1428571428571"/>
-    <col min="11" max="12" width="9.14285714285714" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="30" spans="1:12">
-      <c r="A1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" ht="60" spans="1:12">
-      <c r="A2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="6">
-        <v>27616</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="6">
-        <v>33555</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E24" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="21.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="13.8571428571429" customWidth="1"/>
@@ -2039,79 +1732,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>54</v>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="30" spans="1:12">
-      <c r="A2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3">
         <v>1000</v>
       </c>
       <c r="J2">
         <v>15000</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>68</v>
+      <c r="K2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" ht="30" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J3">
+        <v>15000</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J4">
+        <v>15000</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2149,63 +1918,148 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="8.42857142857143" customWidth="1"/>
+    <col min="3" max="3" width="11.1428571428571"/>
+    <col min="7" max="7" width="11.1428571428571"/>
+    <col min="11" max="12" width="9.14285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" ht="60" spans="1:12">
+      <c r="A2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="4">
+        <v>27616</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="4">
+        <v>33555</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E26" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1428571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.4285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="3" max="4" width="11.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.8571428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>59</v>
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2217,53 +2071,46 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F27" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="20.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8571428571429" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>81</v>
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45938</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45939</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2275,50 +2122,53 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H26" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="11.1428571428571" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.1428571428571" style="1"/>
+    <col min="5" max="5" width="13.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>88</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="45" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45938</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45939</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2330,47 +2180,51 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G22" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.1428571428571" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="11.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1428571428571" style="1"/>
+    <col min="4" max="4" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="C2" s="4">
+        <v>45938</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45939</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
